--- a/docs/attack-excel-files/v18.1/mobile-attack/mobile-attack-v18.1-mitigations.xlsx
+++ b/docs/attack-excel-files/v18.1/mobile-attack/mobile-attack-v18.1-mitigations.xlsx
@@ -302,7 +302,7 @@
     <t>1.2</t>
   </si>
   <si>
-    <t>(Citation: Nightwatch screencap April 2016),(Citation: iOS Universal Links),(Citation: Android App Links),(Citation: IETF-PKCE)</t>
+    <t>(Citation: IETF-PKCE),(Citation: iOS Universal Links),(Citation: Android App Links),(Citation: Nightwatch screencap April 2016)</t>
   </si>
   <si>
     <t>(Citation: Android Notification Listeners),(Citation: Samsung Keyboards)</t>
@@ -314,7 +314,7 @@
     <t>(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
-    <t>(Citation: Elcomsoft-iOSRestricted),(Citation: Trend Micro iOS URL Hijacking),(Citation: LauncherApps getActivityList),(Citation: app_hibernation),(Citation: Android 10 Execute),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: Android Changes to System Broadcasts),(Citation: GoogleIO2016),(Citation: Android Package Visibility),(Citation: Android-TrustedCA),(Citation: TelephonyManager),(Citation: Android 12 Features),(Citation: Symantec-iOSProfile2),(Citation: Android 10 Privacy Changes),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: app_hibernation),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: TelephonyManager),(Citation: Android Changes to System Broadcasts),(Citation: Android 10 Execute),(Citation: Android-TrustedCA),(Citation: Android 12 Features),(Citation: Android Package Visibility),(Citation: Android 10 Privacy Changes),(Citation: Android Capture Sensor 2019),(Citation: Elcomsoft-iOSRestricted),(Citation: GoogleIO2016),(Citation: LauncherApps getActivityList),(Citation: Symantec-iOSProfile2),(Citation: Trend Micro iOS URL Hijacking)</t>
   </si>
   <si>
     <t>(Citation: SMS KitKat)</t>

--- a/docs/attack-excel-files/v18.1/mobile-attack/mobile-attack-v18.1-mitigations.xlsx
+++ b/docs/attack-excel-files/v18.1/mobile-attack/mobile-attack-v18.1-mitigations.xlsx
@@ -314,7 +314,7 @@
     <t>(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
-    <t>(Citation: app_hibernation),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: TelephonyManager),(Citation: Android Changes to System Broadcasts),(Citation: Android 10 Execute),(Citation: Android-TrustedCA),(Citation: Android 12 Features),(Citation: Android Package Visibility),(Citation: Android 10 Privacy Changes),(Citation: Android Capture Sensor 2019),(Citation: Elcomsoft-iOSRestricted),(Citation: GoogleIO2016),(Citation: LauncherApps getActivityList),(Citation: Symantec-iOSProfile2),(Citation: Trend Micro iOS URL Hijacking)</t>
+    <t>(Citation: Android 10 Limitations to Hiding App Icons),(Citation: GoogleIO2016),(Citation: Symantec-iOSProfile2),(Citation: Android 12 Features),(Citation: Android 10 Execute),(Citation: Android-TrustedCA),(Citation: Trend Micro iOS URL Hijacking),(Citation: Android Package Visibility),(Citation: Elcomsoft-iOSRestricted),(Citation: TelephonyManager),(Citation: Android 10 Privacy Changes),(Citation: app_hibernation),(Citation: LauncherApps getActivityList),(Citation: Android Changes to System Broadcasts),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: SMS KitKat)</t>
@@ -2420,16 +2420,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2452,7 +2444,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2460,35 +2452,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2791,34 +2765,34 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2835,7 +2809,7 @@
       <c r="D2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F2" t="s">
@@ -2864,7 +2838,7 @@
       <c r="D3" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F3" t="s">
@@ -2896,7 +2870,7 @@
       <c r="D4" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F4" t="s">
@@ -2925,7 +2899,7 @@
       <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F5" t="s">
@@ -2954,7 +2928,7 @@
       <c r="D6" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F6" t="s">
@@ -2983,7 +2957,7 @@
       <c r="D7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F7" t="s">
@@ -3012,7 +2986,7 @@
       <c r="D8" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F8" t="s">
@@ -3044,7 +3018,7 @@
       <c r="D9" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F9" t="s">
@@ -3076,7 +3050,7 @@
       <c r="D10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F10" t="s">
@@ -3105,7 +3079,7 @@
       <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F11" t="s">
@@ -3134,7 +3108,7 @@
       <c r="D12" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F12" t="s">
@@ -3166,7 +3140,7 @@
       <c r="D13" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F13" t="s">
@@ -3198,7 +3172,7 @@
       <c r="D14" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F14" t="s">
@@ -3246,43 +3220,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10147,13 +10121,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>709</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>710</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10164,7 +10138,7 @@
       <c r="B2" t="s">
         <v>738</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>764</v>
       </c>
     </row>
@@ -10175,7 +10149,7 @@
       <c r="B3" t="s">
         <v>739</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>765</v>
       </c>
     </row>
@@ -10186,7 +10160,7 @@
       <c r="B4" t="s">
         <v>740</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>766</v>
       </c>
     </row>
@@ -10197,7 +10171,7 @@
       <c r="B5" t="s">
         <v>741</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>767</v>
       </c>
     </row>
@@ -10208,7 +10182,7 @@
       <c r="B6" t="s">
         <v>742</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>768</v>
       </c>
     </row>
@@ -10219,7 +10193,7 @@
       <c r="B7" t="s">
         <v>743</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>769</v>
       </c>
     </row>
@@ -10230,7 +10204,7 @@
       <c r="B8" t="s">
         <v>744</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>770</v>
       </c>
     </row>
@@ -10241,7 +10215,7 @@
       <c r="B9" t="s">
         <v>745</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>771</v>
       </c>
     </row>
@@ -10252,7 +10226,7 @@
       <c r="B10" t="s">
         <v>746</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>772</v>
       </c>
     </row>
@@ -10263,7 +10237,7 @@
       <c r="B11" t="s">
         <v>747</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>773</v>
       </c>
     </row>
@@ -10274,7 +10248,7 @@
       <c r="B12" t="s">
         <v>748</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>774</v>
       </c>
     </row>
@@ -10293,7 +10267,7 @@
       <c r="B14" t="s">
         <v>749</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>775</v>
       </c>
     </row>
@@ -10304,7 +10278,7 @@
       <c r="B15" t="s">
         <v>750</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>776</v>
       </c>
     </row>
@@ -10315,7 +10289,7 @@
       <c r="B16" t="s">
         <v>751</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>777</v>
       </c>
     </row>
@@ -10326,7 +10300,7 @@
       <c r="B17" t="s">
         <v>752</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>778</v>
       </c>
     </row>
@@ -10337,7 +10311,7 @@
       <c r="B18" t="s">
         <v>753</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>779</v>
       </c>
     </row>
@@ -10348,7 +10322,7 @@
       <c r="B19" t="s">
         <v>754</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>780</v>
       </c>
     </row>
@@ -10359,7 +10333,7 @@
       <c r="B20" t="s">
         <v>755</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>781</v>
       </c>
     </row>
@@ -10370,7 +10344,7 @@
       <c r="B21" t="s">
         <v>756</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>782</v>
       </c>
     </row>
@@ -10381,7 +10355,7 @@
       <c r="B22" t="s">
         <v>757</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>783</v>
       </c>
     </row>
@@ -10392,7 +10366,7 @@
       <c r="B23" t="s">
         <v>758</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>784</v>
       </c>
     </row>
@@ -10403,7 +10377,7 @@
       <c r="B24" t="s">
         <v>759</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>785</v>
       </c>
     </row>
@@ -10414,7 +10388,7 @@
       <c r="B25" t="s">
         <v>760</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>786</v>
       </c>
     </row>
@@ -10425,7 +10399,7 @@
       <c r="B26" t="s">
         <v>761</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>787</v>
       </c>
     </row>
@@ -10436,7 +10410,7 @@
       <c r="B27" t="s">
         <v>762</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>788</v>
       </c>
     </row>
@@ -10447,7 +10421,7 @@
       <c r="B28" t="s">
         <v>763</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>789</v>
       </c>
     </row>
@@ -10458,7 +10432,7 @@
       <c r="B29" t="s">
         <v>749</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>775</v>
       </c>
     </row>
